--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automatico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A30449-9F66-4C5A-9875-7B7CDC7987A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86619CEB-6D27-4E6E-9EE0-B2FC92E0D0A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Per i bambini in età prescolare ecco alcune attività per sostenere lo sviluppo neuro e psicomotorio, esercizi da effettuare in un contesto di gioco motivante, e giochi motori per divertirsi da soli o in famiglia. Seguite i consigli del terapista.</t>
   </si>
   <si>
-    <t>Nuero e psicomotorio</t>
-  </si>
-  <si>
     <t>bimbo.jpg</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>neuro.png</t>
+  </si>
+  <si>
+    <t>Neuro e psicomotorio</t>
   </si>
 </sst>
 </file>
@@ -554,15 +554,15 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="18" width="12.33203125" customWidth="1"/>
+    <col min="1" max="18" width="12.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -626,16 +626,16 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -694,16 +694,16 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -741,72 +741,72 @@
         <v>24</v>
       </c>
       <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
         <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86619CEB-6D27-4E6E-9EE0-B2FC92E0D0A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF10C85-E7D3-4BBF-984A-E37F38862560}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>Stretching.png</t>
   </si>
   <si>
-    <t>Insieme di esercizi finalizzati al miglioramento del controllo del mobimento.</t>
-  </si>
-  <si>
     <t>Insieme di esercizi finalizzati al miglioramento della flessibilitá muscolare.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Neuro e psicomotorio</t>
+  </si>
+  <si>
+    <t>Insieme di esercizi finalizzati al miglioramento del controllo del movimento.</t>
   </si>
 </sst>
 </file>
@@ -554,15 +554,15 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="12.31640625" customWidth="1"/>
+    <col min="1" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -629,13 +629,13 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -694,16 +694,16 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -747,54 +747,54 @@
         <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
         <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF10C85-E7D3-4BBF-984A-E37F38862560}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31120F-7D1C-4A60-A3D0-E22C37CD3EBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Cartella</t>
   </si>
@@ -198,7 +198,7 @@
     <t>Neuro e psicomotorio</t>
   </si>
   <si>
-    <t>Insieme di esercizi finalizzati al miglioramento del controllo del movimento.</t>
+    <t>Insieme di esercizi finalizzati al miglioramento del controllo della coordinazione motoria.</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +655,15 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31120F-7D1C-4A60-A3D0-E22C37CD3EBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7AC57-E1C8-42EC-B986-534CE463F843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Cartella</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Insieme di esercizi finalizzati al miglioramento del controllo della coordinazione motoria.</t>
+  </si>
+  <si>
+    <t>Mobilizzazione</t>
+  </si>
+  <si>
+    <t>Insieme di esercizi finalizzati al miglioramento della mobilità articolare</t>
   </si>
 </sst>
 </file>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF098EE6-17AB-455A-AB98-AF8837D06DB4}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +764,12 @@
       <c r="O4" t="s">
         <v>38</v>
       </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7AC57-E1C8-42EC-B986-534CE463F843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F56A23-B763-479D-BD6F-9CEDAFE129B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Cartella</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Insieme di esercizi finalizzati al miglioramento della mobilità articolare</t>
+  </si>
+  <si>
+    <t>Mobilizzazione.png</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF098EE6-17AB-455A-AB98-AF8837D06DB4}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +770,9 @@
       <c r="P4" t="s">
         <v>56</v>
       </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
       <c r="R4" t="s">
         <v>57</v>
       </c>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F56A23-B763-479D-BD6F-9CEDAFE129B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A36AA-51F8-4614-A3E3-9DED7FA761E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF098EE6-17AB-455A-AB98-AF8837D06DB4}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A36AA-51F8-4614-A3E3-9DED7FA761E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F581A6-9DA1-4294-8C9E-27D06901A76C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Cartella</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Mobilizzazione.png</t>
+  </si>
+  <si>
+    <t>Insieme di esercizi finalizzati al miglioramento della flessibilità muscolare.</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +676,15 @@
       <c r="O2" t="s">
         <v>55</v>
       </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -719,6 +731,15 @@
       </c>
       <c r="O3" t="s">
         <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F581A6-9DA1-4294-8C9E-27D06901A76C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A057EE54-A210-47BF-8DD6-CC519B554E7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Cartella</t>
   </si>
@@ -189,9 +183,6 @@
     <t>muscoli.jpg</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>neuro.png</t>
   </si>
   <si>
@@ -211,13 +202,25 @@
   </si>
   <si>
     <t>Insieme di esercizi finalizzati al miglioramento della flessibilità muscolare.</t>
+  </si>
+  <si>
+    <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi NON può caricare sull'arto operato</t>
+  </si>
+  <si>
+    <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare FINO AL 30% del suo peso corporeo sull'arto operato</t>
+  </si>
+  <si>
+    <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare COMPLETAMENTE sull'arto operato</t>
+  </si>
+  <si>
+    <t>Esercizi di rinforzo dei muscoli del tronco e dell'addome per migliorare la capacità di controllare la posizione e il movimento del tronco sul bacino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -361,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -555,26 +558,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF098EE6-17AB-455A-AB98-AF8837D06DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -641,10 +644,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -674,7 +677,7 @@
         <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
         <v>36</v>
@@ -683,10 +686,10 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -730,7 +733,7 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -742,7 +745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -789,16 +792,16 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -815,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -824,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
@@ -833,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -842,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
@@ -854,7 +857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -168,15 +168,6 @@
     <t>Carico totale</t>
   </si>
   <si>
-    <t>perc1.jpg</t>
-  </si>
-  <si>
-    <t>perc2.jpg</t>
-  </si>
-  <si>
-    <t>perc3.jpg</t>
-  </si>
-  <si>
     <t>Core Stability</t>
   </si>
   <si>
@@ -214,6 +205,15 @@
   </si>
   <si>
     <t>Esercizi di rinforzo dei muscoli del tronco e dell'addome per migliorare la capacità di controllare la posizione e il movimento del tronco sul bacino</t>
+  </si>
+  <si>
+    <t>senza carico.png</t>
+  </si>
+  <si>
+    <t>carico parziale.png</t>
+  </si>
+  <si>
+    <t>carico totale.png</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,10 +644,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -677,7 +677,7 @@
         <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
         <v>36</v>
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -733,7 +733,7 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -792,13 +792,13 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -809,43 +809,43 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864C1AA-DAB9-4466-BB9A-39B32727CA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -162,9 +162,6 @@
     <t>Senza carico</t>
   </si>
   <si>
-    <t>Carico parziale</t>
-  </si>
-  <si>
     <t>Carico totale</t>
   </si>
   <si>
@@ -214,13 +211,16 @@
   </si>
   <si>
     <t>carico totale.png</t>
+  </si>
+  <si>
+    <t>Carico Parziale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,26 +558,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -644,10 +644,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -677,7 +677,7 @@
         <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
         <v>36</v>
@@ -686,10 +686,10 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -733,7 +733,7 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -745,7 +745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -792,16 +792,16 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -809,43 +809,43 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>57</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
@@ -857,7 +857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864C1AA-DAB9-4466-BB9A-39B32727CA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A536FD08-A87D-4A69-B92C-FDF832D2A501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
     <t>carico totale.png</t>
   </si>
   <si>
-    <t>Carico Parziale</t>
+    <t>Carico parziale</t>
   </si>
 </sst>
 </file>
@@ -312,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -364,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -207,13 +207,13 @@
     <t>Esercizi di rinforzo dei muscoli del tronco e dell'addome per migliorare la capacità di controllare la posizione e il movimento del tronco sul bacino</t>
   </si>
   <si>
-    <t>senza carico.png</t>
-  </si>
-  <si>
     <t>carico parziale.png</t>
   </si>
   <si>
     <t>carico totale.png</t>
+  </si>
+  <si>
+    <t>senza carico1.png</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -815,7 +815,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -824,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -833,7 +833,7 @@
         <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>58</v>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -213,7 +213,7 @@
     <t>carico totale.png</t>
   </si>
   <si>
-    <t>senza carico1.png</t>
+    <t>senza carico2.png</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Cartella</t>
   </si>
@@ -207,13 +207,19 @@
     <t>Esercizi di rinforzo dei muscoli del tronco e dell'addome per migliorare la capacità di controllare la posizione e il movimento del tronco sul bacino</t>
   </si>
   <si>
-    <t>carico parziale.png</t>
-  </si>
-  <si>
-    <t>carico totale.png</t>
-  </si>
-  <si>
-    <t>senza carico2.png</t>
+    <t>poco carico haring.jpg</t>
+  </si>
+  <si>
+    <t>con carico haring.jpg</t>
+  </si>
+  <si>
+    <t>core stability haring.jpg</t>
+  </si>
+  <si>
+    <t>stretching haring.jpg</t>
+  </si>
+  <si>
+    <t>senza carico haring.jpg</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -815,7 +821,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -841,8 +847,8 @@
       <c r="M5" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>23</v>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -851,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
         <v>38</v>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -198,9 +198,6 @@
     <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi NON può caricare sull'arto operato</t>
   </si>
   <si>
-    <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare FINO AL 30% del suo peso corporeo sull'arto operato</t>
-  </si>
-  <si>
     <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare COMPLETAMENTE sull'arto operato</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>senza carico haring.jpg</t>
+  </si>
+  <si>
+    <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare FINO AL 50% del suo peso corporeo sull'arto operato</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,7 +575,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,7 +821,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -830,34 +830,34 @@
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
         <v>38</v>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Cartella</t>
   </si>
@@ -159,18 +159,6 @@
     <t>Esercizi per riabilitazione muscoloscheletrica.</t>
   </si>
   <si>
-    <t>Senza carico</t>
-  </si>
-  <si>
-    <t>Carico parziale</t>
-  </si>
-  <si>
-    <t>Carico totale</t>
-  </si>
-  <si>
-    <t>Core Stability</t>
-  </si>
-  <si>
     <t>muscoli.jpg</t>
   </si>
   <si>
@@ -220,6 +208,21 @@
   </si>
   <si>
     <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare FINO AL 50% del suo peso corporeo sull'arto operato</t>
+  </si>
+  <si>
+    <t>A - Senza carico</t>
+  </si>
+  <si>
+    <t>B - Carico parziale</t>
+  </si>
+  <si>
+    <t>C - Carico totale</t>
+  </si>
+  <si>
+    <t>D - Core Stability</t>
+  </si>
+  <si>
+    <t>E - Stretching</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,13 +577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="12.28515625" customWidth="1"/>
+    <col min="1" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="253" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -650,10 +656,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -683,7 +689,7 @@
         <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
         <v>36</v>
@@ -692,7 +698,7 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -739,7 +745,7 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -798,13 +804,13 @@
         <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -815,49 +821,49 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>57</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
       <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" t="s">
         <v>58</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
       </c>
       <c r="R5" t="s">
         <v>38</v>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\iomimuovoacasa.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B86C2-F787-418F-931B-C9E2941051B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -228,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,21 +567,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
@@ -589,7 +589,7 @@
     <col min="7" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -701,7 +701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -757,7 +757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -813,7 +813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -869,7 +869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B86C2-F787-418F-931B-C9E2941051B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FC4C25-C4BB-4B58-A197-DE416ACC8F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2962EDA3-A46A-47E3-860D-AE83A03A5385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Cartella</t>
   </si>
@@ -220,13 +220,31 @@
   </si>
   <si>
     <t>Esercizi per aumentare la mobilità articolare e la forza muscolare per chi può caricare FINO AL 50% del suo peso corporeo sull'arto operato</t>
+  </si>
+  <si>
+    <t>sezione 6</t>
+  </si>
+  <si>
+    <t>imgsezione6</t>
+  </si>
+  <si>
+    <t>descrizione6</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>cartoon.jpg</t>
+  </si>
+  <si>
+    <t>Insieme di esercizi interattivi per allenarti in compagnia dei tuoi cartoons preferiti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,26 +582,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +656,17 @@
       <c r="R1" t="s">
         <v>19</v>
       </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -695,7 +722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -806,8 +833,17 @@
       <c r="R4" t="s">
         <v>53</v>
       </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -863,7 +899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/esplora.xlsx
+++ b/esplora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2962EDA3-A46A-47E3-860D-AE83A03A5385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5450B969-0A58-4051-84AB-1094FD2B008A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -388,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
